--- a/protocol/FTire.xlsx
+++ b/protocol/FTire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo-Tyres\protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375C48D1-406F-44A2-A1A2-CC93FDADCD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BCA470-DD3A-4A3A-AA3A-69A2B00EE8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="34">
-  <si>
-    <t>Load
-(N)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="34">
   <si>
     <t>S.No</t>
   </si>
@@ -37,27 +33,7 @@
     <t>Test</t>
   </si>
   <si>
-    <t>IP 
-(Kpa)</t>
-  </si>
-  <si>
-    <t>Speed
-(kmph)</t>
-  </si>
-  <si>
-    <t>Longitudinal Slip 
-(%)</t>
-  </si>
-  <si>
-    <t>Slip Angle 
-(deg)</t>
-  </si>
-  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Cleat Orientation [w.r.t axial direction]
-(deg)</t>
   </si>
   <si>
     <t>L1</t>
@@ -124,10 +100,6 @@
     <t>IA</t>
   </si>
   <si>
-    <t>Inclination Angle
-(deg)</t>
-  </si>
-  <si>
     <t>SR</t>
   </si>
   <si>
@@ -138,6 +110,27 @@
   </si>
   <si>
     <t>Cleat</t>
+  </si>
+  <si>
+    <t>IP (Kpa)</t>
+  </si>
+  <si>
+    <t>Load (N)</t>
+  </si>
+  <si>
+    <t>Speed (kmph)</t>
+  </si>
+  <si>
+    <t>Longitudinal Slip (%)</t>
+  </si>
+  <si>
+    <t>Slip Angle (deg)</t>
+  </si>
+  <si>
+    <t>Inclination Angle (deg)</t>
+  </si>
+  <si>
+    <t>Cleat Orientation [w.r.t axial direction] (deg)</t>
   </si>
 </sst>
 </file>
@@ -216,13 +209,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -512,14 +505,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608331DF-3796-41C4-A5AA-AE4A0E1D3B39}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
@@ -530,45 +523,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -576,28 +569,28 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -605,28 +598,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -634,28 +627,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -663,17 +656,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
@@ -686,17 +685,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
@@ -709,22 +714,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -738,25 +743,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -767,28 +772,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -796,28 +801,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -825,28 +830,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -854,28 +859,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -883,28 +888,28 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -912,28 +917,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -941,28 +946,28 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -970,28 +975,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -999,28 +1004,28 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1028,28 +1033,28 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E19" s="1">
         <v>5</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1057,28 +1062,28 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1">
         <v>60</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1086,28 +1091,28 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1">
         <v>90</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1115,19 +1120,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1136,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1144,19 +1149,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1165,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1173,19 +1178,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1194,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1202,28 +1207,28 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1231,28 +1236,28 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1260,28 +1265,28 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1289,28 +1294,28 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1318,28 +1323,28 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1347,28 +1352,28 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1376,28 +1381,28 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1405,28 +1410,28 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1434,28 +1439,28 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1463,28 +1468,28 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1492,28 +1497,28 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1521,28 +1526,28 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1550,19 +1555,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E37" s="1">
         <v>30</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1579,19 +1584,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E38" s="1">
         <v>60</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -1608,19 +1613,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E39" s="1">
         <v>90</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1637,19 +1642,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E40" s="1">
         <v>30</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -1666,19 +1671,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E41" s="1">
         <v>60</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -1695,19 +1700,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E42" s="1">
         <v>90</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -1724,19 +1729,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E43" s="1">
         <v>30</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -1753,19 +1758,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E44" s="1">
         <v>60</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -1782,19 +1787,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E45" s="1">
         <v>90</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -1811,19 +1816,19 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E46" s="1">
         <v>30</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -1840,19 +1845,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E47" s="1">
         <v>60</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -1869,19 +1874,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E48" s="1">
         <v>90</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -1898,19 +1903,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E49" s="1">
         <v>30</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -1927,19 +1932,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E50" s="1">
         <v>60</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -1956,19 +1961,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E51" s="1">
         <v>90</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -1985,19 +1990,19 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E52" s="1">
         <v>30</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2014,19 +2019,19 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E53" s="1">
         <v>60</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -2043,19 +2048,19 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E54" s="1">
         <v>90</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2073,6 +2078,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/protocol/FTire.xlsx
+++ b/protocol/FTire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo-Tyres\protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BCA470-DD3A-4A3A-AA3A-69A2B00EE8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDA0D4C-EE2E-4C99-83E4-5315470B5F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="38">
   <si>
     <t>S.No</t>
   </si>
@@ -131,13 +131,25 @@
   </si>
   <si>
     <t>Cleat Orientation [w.r.t axial direction] (deg)</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Old Job</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +167,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -214,6 +241,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -503,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608331DF-3796-41C4-A5AA-AE4A0E1D3B39}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,49 +555,57 @@
     <col min="15" max="15" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -592,8 +633,14 @@
       <c r="I3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -621,8 +668,14 @@
       <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -650,8 +703,14 @@
       <c r="I5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -679,8 +738,14 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -708,8 +773,14 @@
       <c r="I7" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -737,8 +808,14 @@
       <c r="I8" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -766,8 +843,14 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -795,8 +878,14 @@
       <c r="I10" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -824,8 +913,14 @@
       <c r="I11" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -853,8 +948,14 @@
       <c r="I12" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -882,8 +983,14 @@
       <c r="I13" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -911,8 +1018,14 @@
       <c r="I14" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -940,8 +1053,14 @@
       <c r="I15" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -969,8 +1088,14 @@
       <c r="I16" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -998,8 +1123,14 @@
       <c r="I17" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1027,8 +1158,14 @@
       <c r="I18" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1056,8 +1193,14 @@
       <c r="I19" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1085,8 +1228,14 @@
       <c r="I20" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1114,8 +1263,14 @@
       <c r="I21" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1143,8 +1298,14 @@
       <c r="I22" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1172,8 +1333,14 @@
       <c r="I23" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1201,8 +1368,14 @@
       <c r="I24" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1230,8 +1403,14 @@
       <c r="I25" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1259,8 +1438,14 @@
       <c r="I26" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1288,8 +1473,14 @@
       <c r="I27" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1317,8 +1508,14 @@
       <c r="I28" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1346,8 +1543,14 @@
       <c r="I29" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1375,8 +1578,14 @@
       <c r="I30" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1404,8 +1613,14 @@
       <c r="I31" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1433,8 +1648,14 @@
       <c r="I32" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1462,8 +1683,14 @@
       <c r="I33" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1491,8 +1718,14 @@
       <c r="I34" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1520,8 +1753,14 @@
       <c r="I35" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1549,8 +1788,14 @@
       <c r="I36" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1578,8 +1823,14 @@
       <c r="I37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1607,8 +1858,14 @@
       <c r="I38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1636,8 +1893,14 @@
       <c r="I39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1665,8 +1928,14 @@
       <c r="I40" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1694,8 +1963,14 @@
       <c r="I41" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1723,8 +1998,14 @@
       <c r="I42" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1752,8 +2033,14 @@
       <c r="I43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1781,8 +2068,14 @@
       <c r="I44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1810,8 +2103,14 @@
       <c r="I45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1839,8 +2138,14 @@
       <c r="I46" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1868,8 +2173,14 @@
       <c r="I47" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1897,8 +2208,14 @@
       <c r="I48" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1926,8 +2243,14 @@
       <c r="I49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1955,8 +2278,14 @@
       <c r="I50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1984,8 +2313,14 @@
       <c r="I51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2013,8 +2348,14 @@
       <c r="I52" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2042,8 +2383,14 @@
       <c r="I53" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2071,10 +2418,16 @@
       <c r="I54" s="1">
         <v>45</v>
       </c>
+      <c r="J54" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2083,18 +2436,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9a5db21a-d35a-46ce-8c5f-f5d5fc28f889">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9835133f-5fd4-4b97-b5f4-cac45b4daea9" xsi:nil="true"/>
-    <pythoncode xmlns="9a5db21a-d35a-46ce-8c5f-f5d5fc28f889" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010060A39FED5B493047A4A44D29CC209A4D" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9421af8990fa0ac45e1e60665e0dacca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9a5db21a-d35a-46ce-8c5f-f5d5fc28f889" xmlns:ns3="9835133f-5fd4-4b97-b5f4-cac45b4daea9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="db462660911d7a73a00929102dca680a" ns2:_="" ns3:_="">
     <xsd:import namespace="9a5db21a-d35a-46ce-8c5f-f5d5fc28f889"/>
@@ -2345,7 +2686,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2354,18 +2695,19 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32DCAC69-F90C-446D-A4B3-88DCBAC1EAC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9a5db21a-d35a-46ce-8c5f-f5d5fc28f889"/>
-    <ds:schemaRef ds:uri="9835133f-5fd4-4b97-b5f4-cac45b4daea9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9a5db21a-d35a-46ce-8c5f-f5d5fc28f889">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9835133f-5fd4-4b97-b5f4-cac45b4daea9" xsi:nil="true"/>
+    <pythoncode xmlns="9a5db21a-d35a-46ce-8c5f-f5d5fc28f889" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D49076E3-A5BD-464F-A3F7-9E28B9123F15}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2384,10 +2726,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B6F3A4E-EFDD-4CD7-8603-9EF08E01F619}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32DCAC69-F90C-446D-A4B3-88DCBAC1EAC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9a5db21a-d35a-46ce-8c5f-f5d5fc28f889"/>
+    <ds:schemaRef ds:uri="9835133f-5fd4-4b97-b5f4-cac45b4daea9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>